--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C1DD86-1DBA-394A-8624-49516CCC82C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C60F96-62DD-5244-B7C9-CE0477BE6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,42 @@
   </si>
   <si>
     <t>ベルゼブルの竜</t>
+  </si>
+  <si>
+    <t>back_to_the_future.jpg</t>
+  </si>
+  <si>
+    <t>Back to the Future</t>
+  </si>
+  <si>
+    <t>バック・トゥ・ザ・フューチャー</t>
+  </si>
+  <si>
+    <t>ekusea.jpg</t>
+  </si>
+  <si>
+    <t>エクセア</t>
+  </si>
+  <si>
+    <t>Ekusea</t>
+  </si>
+  <si>
+    <t>ギャランス・ハート</t>
+  </si>
+  <si>
+    <t>gyarance_heart.jpg</t>
+  </si>
+  <si>
+    <t>Gyrarance Heart</t>
+  </si>
+  <si>
+    <t>seventh_wizard.jpg</t>
+  </si>
+  <si>
+    <t>第七の魔法使い</t>
+  </si>
+  <si>
+    <t>Seventh Wizard</t>
   </si>
 </sst>
 </file>
@@ -510,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,36 +664,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,67 +701,135 @@
         <v>1988</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>1988</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1990</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1989</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1992</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1992</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C60F96-62DD-5244-B7C9-CE0477BE6997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9908FB5-E0F5-654B-B78A-DF34DE4972DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>year</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Seventh Wizard</t>
+  </si>
+  <si>
+    <t>ゼビウス</t>
+  </si>
+  <si>
+    <t>Xevious</t>
+  </si>
+  <si>
+    <t>xevious.jpg</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,6 +841,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1985</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9908FB5-E0F5-654B-B78A-DF34DE4972DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8BDE8-CDE2-6748-B274-F193B6B2D3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>year</t>
   </si>
@@ -195,6 +195,33 @@
   </si>
   <si>
     <t>xevious.jpg</t>
+  </si>
+  <si>
+    <t>魔宮の勇者たち</t>
+  </si>
+  <si>
+    <t>Magical Heroes</t>
+  </si>
+  <si>
+    <t>magical_heroes.jpg</t>
+  </si>
+  <si>
+    <t>one_fascinated_by_the_devil.jpg</t>
+  </si>
+  <si>
+    <t>One Fascinated by the Devil</t>
+  </si>
+  <si>
+    <t>悪魔に魅せられし者</t>
+  </si>
+  <si>
+    <t>魔界の滅亡</t>
+  </si>
+  <si>
+    <t>Destruction of the Demon World</t>
+  </si>
+  <si>
+    <t>destruction_of_the_demon_world.jpg</t>
   </si>
 </sst>
 </file>
@@ -555,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +885,57 @@
         <v>53</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1986</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1986</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1986</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8BDE8-CDE2-6748-B274-F193B6B2D3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA4C4E-2C6E-9843-BDEC-BDD92C92805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>year</t>
   </si>
@@ -222,6 +222,78 @@
   </si>
   <si>
     <t>destruction_of_the_demon_world.jpg</t>
+  </si>
+  <si>
+    <t>ドラゴンバスター</t>
+  </si>
+  <si>
+    <t>Dragon Buster</t>
+  </si>
+  <si>
+    <t>dragon_buster.jpg</t>
+  </si>
+  <si>
+    <t>迷宮のドラゴン</t>
+  </si>
+  <si>
+    <t>Labyrinth Dragon</t>
+  </si>
+  <si>
+    <t>labyrinth_dragon.jpg</t>
+  </si>
+  <si>
+    <t>ピラミッドの謎</t>
+  </si>
+  <si>
+    <t>Pyramid Mystery</t>
+  </si>
+  <si>
+    <t>pyramid_mystery.jpg</t>
+  </si>
+  <si>
+    <t>時の鍵伝説</t>
+  </si>
+  <si>
+    <t>Legend of the Key of Time</t>
+  </si>
+  <si>
+    <t>legend_of_the_key_of_time.jpg</t>
+  </si>
+  <si>
+    <t>カイの冒険</t>
+  </si>
+  <si>
+    <t>Kai's Adventure</t>
+  </si>
+  <si>
+    <t>kais_adventure.jpg</t>
+  </si>
+  <si>
+    <t>ネバーランドのリンゴ</t>
+  </si>
+  <si>
+    <t>Apple of Neverland</t>
+  </si>
+  <si>
+    <t>ニフルハイムのユリ</t>
+  </si>
+  <si>
+    <t>Lily of Nilfheim</t>
+  </si>
+  <si>
+    <t>ネバーランドのカボチャ男</t>
+  </si>
+  <si>
+    <t>Pumpkinman of Neverland</t>
+  </si>
+  <si>
+    <t>neverland_apple.jpg</t>
+  </si>
+  <si>
+    <t>nilfheim_lily.jpg</t>
+  </si>
+  <si>
+    <t>pumpkinman_of_neverland.jpg</t>
   </si>
 </sst>
 </file>
@@ -582,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,6 +1008,142 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1987</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1988</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1989</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1989</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1990</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1986</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1987</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1990</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA4C4E-2C6E-9843-BDEC-BDD92C92805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8F635C-FB33-4949-9DE6-79DE8D9FDF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>year</t>
   </si>
@@ -294,6 +294,24 @@
   </si>
   <si>
     <t>pumpkinman_of_neverland.jpg</t>
+  </si>
+  <si>
+    <t>ウルフヘッドの誕生</t>
+  </si>
+  <si>
+    <t>Birth of the Wolfhead</t>
+  </si>
+  <si>
+    <t>ウルフヘッドの逆襲</t>
+  </si>
+  <si>
+    <t>The Wolfhead Strikes Back</t>
+  </si>
+  <si>
+    <t>birth_of_wolfhead.jpg</t>
+  </si>
+  <si>
+    <t>wolfhead_strikes_back.jpg</t>
   </si>
 </sst>
 </file>
@@ -654,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,6 +1162,40 @@
         <v>86</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1989</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1989</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8F635C-FB33-4949-9DE6-79DE8D9FDF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889ABD54-4FA6-6F4F-8BB8-E136826E01D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>year</t>
   </si>
@@ -312,6 +312,60 @@
   </si>
   <si>
     <t>wolfhead_strikes_back.jpg</t>
+  </si>
+  <si>
+    <t>吸血鬼の洞窟</t>
+  </si>
+  <si>
+    <t>vampire_cave.jpg</t>
+  </si>
+  <si>
+    <t>シャドー砦の魔王</t>
+  </si>
+  <si>
+    <t>demon_king_of_fort_shadow.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炎の神殿 </t>
+  </si>
+  <si>
+    <t>Crypt of the Vampire</t>
+  </si>
+  <si>
+    <t>The Lord of Shadow Keep</t>
+  </si>
+  <si>
+    <t>The Temple of Flame</t>
+  </si>
+  <si>
+    <t>失われた魂の城</t>
+  </si>
+  <si>
+    <t>Castle of Lost Souls</t>
+  </si>
+  <si>
+    <t>castle_of_lost_souls.jpg</t>
+  </si>
+  <si>
+    <t>temple_of_the_flame.jpg</t>
+  </si>
+  <si>
+    <t>ドラゴンの目</t>
+  </si>
+  <si>
+    <t>The Eye of the Dragon</t>
+  </si>
+  <si>
+    <t>eye_of_the_dragon.jpg</t>
+  </si>
+  <si>
+    <t>ファラオの呪い</t>
+  </si>
+  <si>
+    <t>Curse of the Pharaoh</t>
+  </si>
+  <si>
+    <t>curse_of_the_pharaoh.jpg</t>
   </si>
 </sst>
 </file>
@@ -672,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,6 +1250,108 @@
         <v>92</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1986</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1986</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1986</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1986</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1986</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1986</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889ABD54-4FA6-6F4F-8BB8-E136826E01D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A298E66C-9F27-8841-9257-1C17BB87BB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t>year</t>
   </si>
@@ -366,6 +366,42 @@
   </si>
   <si>
     <t>curse_of_the_pharaoh.jpg</t>
+  </si>
+  <si>
+    <t>ドラゴンの戦士</t>
+  </si>
+  <si>
+    <t>Dragon Warriors</t>
+  </si>
+  <si>
+    <t>dragon_warriors.jpg</t>
+  </si>
+  <si>
+    <t>way_of_wizardry.jpg</t>
+  </si>
+  <si>
+    <t>The Way of Wizardry</t>
+  </si>
+  <si>
+    <t>魔法使いへの道</t>
+  </si>
+  <si>
+    <t>エルフのクリスタル</t>
+  </si>
+  <si>
+    <t>The Elven Crystals</t>
+  </si>
+  <si>
+    <t>elven_crystals.jpg</t>
+  </si>
+  <si>
+    <t>クトゥルー・ゲームブック暗黒教団の陰謀</t>
+  </si>
+  <si>
+    <t>Cthulhu Gamebook: Conspiracy of the Dark Order</t>
+  </si>
+  <si>
+    <t>conpiracy_of_the_dark_order.jpg</t>
   </si>
 </sst>
 </file>
@@ -726,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1388,74 @@
         <v>110</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1990</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1990</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1991</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1987</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A298E66C-9F27-8841-9257-1C17BB87BB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04E0E9C1-7DF9-E043-8C8E-42AD6F4CC3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04E0E9C1-7DF9-E043-8C8E-42AD6F4CC3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A578F9-08FD-6E43-AC7A-AF1169E2FFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <t>Cthulhu Gamebook: Conspiracy of the Dark Order</t>
   </si>
   <si>
-    <t>conpiracy_of_the_dark_order.jpg</t>
+    <t>conspiracy_of_the_dark_order.jpg</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A578F9-08FD-6E43-AC7A-AF1169E2FFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11A2E9C-20C4-1B45-B0C7-9B502CC2EE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>year</t>
   </si>
@@ -402,6 +402,78 @@
   </si>
   <si>
     <t>conspiracy_of_the_dark_order.jpg</t>
+  </si>
+  <si>
+    <t>魔王の地下要塞</t>
+  </si>
+  <si>
+    <t>Treachery in Draken-Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイアーロードの砦 </t>
+  </si>
+  <si>
+    <t>Fortress of the Firelord</t>
+  </si>
+  <si>
+    <t>fortress_of_the_firelord</t>
+  </si>
+  <si>
+    <t>treachery_in_draken_wood.jpg</t>
+  </si>
+  <si>
+    <t>展覧会の絵</t>
+  </si>
+  <si>
+    <t>Painting at the Exhibition</t>
+  </si>
+  <si>
+    <t>painting_at_the_exhibition.jpg</t>
+  </si>
+  <si>
+    <t>スーパー・ブラックオニキス</t>
+  </si>
+  <si>
+    <t>Super Black Onyx</t>
+  </si>
+  <si>
+    <t>super_black_onyx.jpg</t>
+  </si>
+  <si>
+    <t>ティーンズ・パンタクル</t>
+  </si>
+  <si>
+    <t>Teens Pantacle</t>
+  </si>
+  <si>
+    <t>teens_pantacle.jpg</t>
+  </si>
+  <si>
+    <t>pantacle.jpg</t>
+  </si>
+  <si>
+    <t>pantacle2.jpg</t>
+  </si>
+  <si>
+    <t>Pantacle</t>
+  </si>
+  <si>
+    <t>Pantacle 2</t>
+  </si>
+  <si>
+    <t>パンタクル</t>
+  </si>
+  <si>
+    <t>パンタクル2</t>
+  </si>
+  <si>
+    <t>眠れる竜ラヴァンス</t>
+  </si>
+  <si>
+    <t>Sleeping Dragon Lavance</t>
+  </si>
+  <si>
+    <t>sleeping_dragon_lavance.jpg</t>
   </si>
 </sst>
 </file>
@@ -762,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,6 +1528,142 @@
         <v>122</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1987</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1987</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1987</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1987</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1989</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1990</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1991</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1986</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11A2E9C-20C4-1B45-B0C7-9B502CC2EE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617F2BA-544E-1540-B451-EFF77CC4E73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -416,9 +416,6 @@
     <t>Fortress of the Firelord</t>
   </si>
   <si>
-    <t>fortress_of_the_firelord</t>
-  </si>
-  <si>
     <t>treachery_in_draken_wood.jpg</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>sleeping_dragon_lavance.jpg</t>
+  </si>
+  <si>
+    <t>fortress_of_the_firelord.jpg</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D48"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1567,16 +1567,16 @@
         <v>1987</v>
       </c>
       <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
         <v>129</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
         <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1584,16 +1584,16 @@
         <v>1987</v>
       </c>
       <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1601,16 +1601,16 @@
         <v>1989</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1618,16 +1618,16 @@
         <v>1990</v>
       </c>
       <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,16 +1635,16 @@
         <v>1991</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1652,16 +1652,16 @@
         <v>1986</v>
       </c>
       <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
         <v>144</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
         <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617F2BA-544E-1540-B451-EFF77CC4E73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A388D-3D66-3740-8D0E-40B56D264C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="149">
   <si>
     <t>year</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>fortress_of_the_firelord.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE28C76-E3E7-7B41-A0B5-06A554F52F34}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,10 +851,10 @@
     <col min="2" max="2" width="54.1640625" customWidth="1"/>
     <col min="3" max="3" width="42.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -881,8 +890,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1985</v>
       </c>
@@ -898,8 +910,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1985</v>
       </c>
@@ -915,8 +930,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1985</v>
       </c>
@@ -932,8 +950,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1985</v>
       </c>
@@ -949,8 +970,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -966,8 +990,11 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -983,8 +1010,11 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1988</v>
       </c>
@@ -1000,8 +1030,11 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -1017,8 +1050,11 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -1034,8 +1070,11 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1988</v>
       </c>
@@ -1051,8 +1090,11 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -1068,8 +1110,11 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1085,8 +1130,11 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -1102,8 +1150,11 @@
       <c r="E15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -1119,8 +1170,11 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1985</v>
       </c>
@@ -1136,8 +1190,11 @@
       <c r="E17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -1153,8 +1210,11 @@
       <c r="E18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1986</v>
       </c>
@@ -1170,8 +1230,11 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1986</v>
       </c>
@@ -1187,8 +1250,11 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1987</v>
       </c>
@@ -1204,8 +1270,11 @@
       <c r="E21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1988</v>
       </c>
@@ -1221,8 +1290,11 @@
       <c r="E22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1989</v>
       </c>
@@ -1238,8 +1310,11 @@
       <c r="E23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -1255,8 +1330,11 @@
       <c r="E24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -1272,8 +1350,11 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -1289,8 +1370,11 @@
       <c r="E26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1987</v>
       </c>
@@ -1306,8 +1390,11 @@
       <c r="E27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1990</v>
       </c>
@@ -1323,8 +1410,11 @@
       <c r="E28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -1340,8 +1430,11 @@
       <c r="E29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1989</v>
       </c>
@@ -1357,8 +1450,11 @@
       <c r="E30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1986</v>
       </c>
@@ -1374,8 +1470,11 @@
       <c r="E31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1986</v>
       </c>
@@ -1391,8 +1490,11 @@
       <c r="E32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1986</v>
       </c>
@@ -1408,8 +1510,11 @@
       <c r="E33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1986</v>
       </c>
@@ -1425,8 +1530,11 @@
       <c r="E34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1986</v>
       </c>
@@ -1442,8 +1550,11 @@
       <c r="E35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1986</v>
       </c>
@@ -1459,8 +1570,11 @@
       <c r="E36" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1990</v>
       </c>
@@ -1476,8 +1590,11 @@
       <c r="E37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1990</v>
       </c>
@@ -1493,8 +1610,11 @@
       <c r="E38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1991</v>
       </c>
@@ -1510,8 +1630,11 @@
       <c r="E39" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1987</v>
       </c>
@@ -1527,8 +1650,11 @@
       <c r="E40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1987</v>
       </c>
@@ -1544,8 +1670,11 @@
       <c r="E41" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1987</v>
       </c>
@@ -1561,8 +1690,11 @@
       <c r="E42" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1987</v>
       </c>
@@ -1578,8 +1710,11 @@
       <c r="E43" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1987</v>
       </c>
@@ -1595,8 +1730,11 @@
       <c r="E44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1989</v>
       </c>
@@ -1612,8 +1750,11 @@
       <c r="E45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1990</v>
       </c>
@@ -1629,8 +1770,11 @@
       <c r="E46" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1991</v>
       </c>
@@ -1646,8 +1790,11 @@
       <c r="E47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1986</v>
       </c>
@@ -1662,6 +1809,9 @@
       </c>
       <c r="E48" t="s">
         <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/super-adventure-game/checklist.xlsx
+++ b/super-adventure-game/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/super-adventure-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A388D-3D66-3740-8D0E-40B56D264C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3520DA43-B9EA-2643-AFF4-7280C77416F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{01552798-BB71-8343-BFB6-09AF7D3B2DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>gyarance_heart.jpg</t>
   </si>
   <si>
-    <t>Gyrarance Heart</t>
-  </si>
-  <si>
     <t>seventh_wizard.jpg</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>gamebook</t>
+  </si>
+  <si>
+    <t>Gyrance Heart</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F48"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1151,7 +1151,7 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,19 +1159,19 @@
         <v>1992</v>
       </c>
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,19 +1179,19 @@
         <v>1985</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,19 +1199,19 @@
         <v>1986</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,19 +1219,19 @@
         <v>1986</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,19 +1239,19 @@
         <v>1986</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>1987</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1279,19 +1279,19 @@
         <v>1988</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,19 +1299,19 @@
         <v>1989</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1319,19 +1319,19 @@
         <v>1989</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1339,19 +1339,19 @@
         <v>1990</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1359,19 +1359,19 @@
         <v>1986</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,19 +1379,19 @@
         <v>1987</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1399,19 +1399,19 @@
         <v>1990</v>
       </c>
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,19 +1419,19 @@
         <v>1989</v>
       </c>
       <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1439,19 +1439,19 @@
         <v>1989</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1459,19 +1459,19 @@
         <v>1986</v>
       </c>
       <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,19 +1479,19 @@
         <v>1986</v>
       </c>
       <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>96</v>
-      </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1499,19 +1499,19 @@
         <v>1986</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,19 +1519,19 @@
         <v>1986</v>
       </c>
       <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1539,19 +1539,19 @@
         <v>1986</v>
       </c>
       <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>107</v>
-      </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1559,19 +1559,19 @@
         <v>1986</v>
       </c>
       <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,19 +1579,19 @@
         <v>1990</v>
       </c>
       <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>113</v>
-      </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1599,19 +1599,19 @@
         <v>1990</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,19 +1619,19 @@
         <v>1991</v>
       </c>
       <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1639,19 +1639,19 @@
         <v>1987</v>
       </c>
       <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
-      </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1659,19 +1659,19 @@
         <v>1987</v>
       </c>
       <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
         <v>123</v>
       </c>
-      <c r="C41" t="s">
-        <v>124</v>
-      </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1679,19 +1679,19 @@
         <v>1987</v>
       </c>
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" t="s">
-        <v>126</v>
-      </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,19 +1699,19 @@
         <v>1987</v>
       </c>
       <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
         <v>129</v>
       </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,19 +1719,19 @@
         <v>1987</v>
       </c>
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>133</v>
-      </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,19 +1739,19 @@
         <v>1989</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,19 +1759,19 @@
         <v>1990</v>
       </c>
       <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
         <v>135</v>
       </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>136</v>
-      </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,19 +1779,19 @@
         <v>1991</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,19 +1799,19 @@
         <v>1986</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>145</v>
-      </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
